--- a/Lit_Review_Fig/FireMeta_Rproj/inputs/Studies/Earl_Blinn_2003/Earl_Blinn_2003.xlsx
+++ b/Lit_Review_Fig/FireMeta_Rproj/inputs/Studies/Earl_Blinn_2003/Earl_Blinn_2003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/Studies/Earl_Blinn_2003/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F798376D-BC1A-D04A-B836-4F671F33B14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFC2AF5-E8F5-AD40-9188-9FCA1E7CB72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="760" windowWidth="27240" windowHeight="16420" xr2:uid="{538AD7EB-160E-9641-91F6-A7D826942086}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>Mean_Median_or_IndividualSample</t>
   </si>
   <si>
-    <t>DOC_mg_C_L</t>
-  </si>
-  <si>
     <t>DOC_unit</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>STER_DOC</t>
   </si>
   <si>
-    <t>NO3_mg_per_L_as_Nitrate</t>
-  </si>
-  <si>
     <t>NO3_unit</t>
   </si>
   <si>
@@ -114,6 +108,12 @@
   </si>
   <si>
     <t xml:space="preserve">The first thing that sticks out to me is they say they are investigating the influence of ash input on water qualtuy following wildfires. They also don’t have lat/longs included where they collect their samples but looks like I might be able to extract that from google maps. (Fig 1). They have multiple burns within the study area and it is pre_post data. The pre data they have for nitrate is sparse at best because most of it is bdl and the post fire stuff is spotty as well. Thinking about tossing this one. </t>
+  </si>
+  <si>
+    <t>DOC</t>
+  </si>
+  <si>
+    <t>NO3</t>
   </si>
 </sst>
 </file>
@@ -190,12 +190,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -516,12 +515,11 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="4"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -529,10 +527,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -566,55 +564,55 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>32.848999999999997</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>-108.593</v>
       </c>
       <c r="I2" s="3"/>
       <c r="V2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
